--- a/LOGS/c29cb70d-6919-401e-a1df-c160d1cd4b79/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/c29cb70d-6919-401e-a1df-c160d1cd4b79/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="70">
   <si>
     <t>rows</t>
   </si>
@@ -38,12 +38,18 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash at bank</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>None Trade debtors</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>$ $</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Finished goods At cost</t>
   </si>
   <si>
@@ -68,6 +77,9 @@
     <t>Finished goods Total</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Cost Balance at 1 April 2022</t>
   </si>
   <si>
@@ -107,6 +119,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Amortisation Balance at 1 April 2022</t>
   </si>
   <si>
@@ -125,6 +140,9 @@
     <t>Total $</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None Trade and other receivables</t>
   </si>
   <si>
@@ -158,9 +176,15 @@
     <t>Net balance 31 March $</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None Security deposits</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None Trade payables</t>
   </si>
   <si>
@@ -170,12 +194,18 @@
     <t>None Goods and services tax</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Current Employee benefits</t>
   </si>
   <si>
     <t>Non-current Employee benefits</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>None Warranties</t>
   </si>
   <si>
@@ -194,10 +224,16 @@
     <t>Provisions reversed during the year Balance at 31 March 2023</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>None 4,500,000 Ordinary shares</t>
   </si>
   <si>
     <t>Mr. Nobuaki Suzuki $ Director</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -555,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,13 +610,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -588,19 +627,25 @@
       <c r="D2">
         <v>7581823</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>15609224</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -610,13 +655,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,13 +674,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -643,13 +691,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -657,13 +708,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -671,13 +725,16 @@
       <c r="D4">
         <v>3300642</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -685,13 +742,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -699,13 +759,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -713,13 +776,16 @@
       <c r="D7">
         <v>1928661</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -727,13 +793,16 @@
       <c r="D8">
         <v>169405</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -741,13 +810,16 @@
       <c r="D9">
         <v>-192091</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -755,13 +827,16 @@
       <c r="D10">
         <v>1905975</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -769,13 +844,16 @@
       <c r="D11">
         <v>1905975</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -783,13 +861,16 @@
       <c r="D12">
         <v>1394667</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -797,13 +878,16 @@
       <c r="D13">
         <v>2972019</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -811,13 +895,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -825,13 +912,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -839,13 +929,16 @@
       <c r="D16">
         <v>1043358</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -853,13 +946,16 @@
       <c r="D17">
         <v>351309</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -867,19 +963,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
         <v>1394667</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -889,13 +991,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,13 +1010,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -922,19 +1027,25 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>4500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +1055,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,13 +1074,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -977,13 +1091,16 @@
       <c r="D2">
         <v>29259569</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -991,13 +1108,16 @@
       <c r="D3">
         <v>-1651634</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1005,13 +1125,16 @@
       <c r="D4">
         <v>27607935</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1019,13 +1142,16 @@
       <c r="D5">
         <v>51036618</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1033,13 +1159,16 @@
       <c r="D6">
         <v>78644553</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1047,13 +1176,16 @@
       <c r="D7">
         <v>32654310</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1061,13 +1193,16 @@
       <c r="D8">
         <v>-1412013</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1075,13 +1210,16 @@
       <c r="D9">
         <v>31242297</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1089,19 +1227,25 @@
       <c r="D10">
         <v>97897313</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>129139610</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1111,13 +1255,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,13 +1274,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1144,13 +1291,16 @@
       <c r="D2">
         <v>102462647</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1158,13 +1308,16 @@
       <c r="D3">
         <v>-6819731</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1172,13 +1325,16 @@
       <c r="D4">
         <v>95642916</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1186,13 +1342,16 @@
       <c r="D5">
         <v>54818369</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1200,19 +1359,25 @@
       <c r="D6">
         <v>-8034944</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>46783425</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1222,13 +1387,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,13 +1406,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1255,13 +1423,16 @@
       <c r="D2">
         <v>1261590</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1269,13 +1440,16 @@
       <c r="D3">
         <v>293882</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1283,13 +1457,16 @@
       <c r="D4">
         <v>-328861</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1297,13 +1474,16 @@
       <c r="D5">
         <v>1226611</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1311,13 +1491,16 @@
       <c r="D6">
         <v>687752</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1325,13 +1508,16 @@
       <c r="D7">
         <v>282413</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1339,13 +1525,16 @@
       <c r="D8">
         <v>-262569</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1353,13 +1542,16 @@
       <c r="D9">
         <v>707596</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1367,13 +1559,16 @@
       <c r="D10">
         <v>573838</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1381,13 +1576,16 @@
       <c r="D11">
         <v>519015</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1395,13 +1593,16 @@
       <c r="D12">
         <v>2817900</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1409,13 +1610,16 @@
       <c r="D13">
         <v>211814</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1423,13 +1627,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1437,13 +1644,16 @@
       <c r="D15">
         <v>3029714</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1451,13 +1661,16 @@
       <c r="D16">
         <v>1259748</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1465,13 +1678,16 @@
       <c r="D17">
         <v>444604</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1479,13 +1695,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1493,13 +1712,16 @@
       <c r="D19">
         <v>1704352</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1507,13 +1729,16 @@
       <c r="D20">
         <v>1558152</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1521,13 +1746,16 @@
       <c r="D21">
         <v>1325362</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1535,13 +1763,16 @@
       <c r="D22">
         <v>4079490</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1549,13 +1780,16 @@
       <c r="D23">
         <v>505696</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1563,13 +1797,16 @@
       <c r="D24">
         <v>-328861</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1577,13 +1814,16 @@
       <c r="D25">
         <v>4256325</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1591,13 +1831,16 @@
       <c r="D26">
         <v>1947500</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1605,13 +1848,16 @@
       <c r="D27">
         <v>727017</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1619,13 +1865,16 @@
       <c r="D28">
         <v>-262569</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -1633,13 +1882,16 @@
       <c r="D29">
         <v>2411948</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1647,19 +1899,25 @@
       <c r="D30">
         <v>2131990</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>2023</v>
       </c>
       <c r="D31">
         <v>1844377</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1669,13 +1927,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,13 +1946,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1702,13 +1963,16 @@
       <c r="D2">
         <v>878898</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1716,13 +1980,16 @@
       <c r="D3">
         <v>82039</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1730,13 +1997,16 @@
       <c r="D4">
         <v>-30588</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1744,13 +2014,16 @@
       <c r="D5">
         <v>930349</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1758,13 +2031,16 @@
       <c r="D6">
         <v>649519</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1772,13 +2048,16 @@
       <c r="D7">
         <v>108758</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1786,13 +2065,16 @@
       <c r="D8">
         <v>-28999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1800,13 +2082,16 @@
       <c r="D9">
         <v>729278</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1814,19 +2099,25 @@
       <c r="D10">
         <v>229379</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>2023</v>
       </c>
       <c r="D11">
         <v>201071</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1836,13 +2127,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,13 +2146,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1869,13 +2163,16 @@
       <c r="D2">
         <v>423604</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1883,13 +2180,16 @@
       <c r="D3">
         <v>2410483</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1897,13 +2197,16 @@
       <c r="D4">
         <v>86965</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1911,13 +2214,16 @@
       <c r="D5">
         <v>2955342</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1925,13 +2231,16 @@
       <c r="D6">
         <v>1148907</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1939,13 +2248,16 @@
       <c r="D7">
         <v>754815</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1953,13 +2265,16 @@
       <c r="D8">
         <v>34931</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1967,13 +2282,16 @@
       <c r="D9">
         <v>7815047</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1981,13 +2299,16 @@
       <c r="D10">
         <v>71886</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1995,13 +2316,16 @@
       <c r="D11">
         <v>-364564</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2009,13 +2333,16 @@
       <c r="D12">
         <v>-8374</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2023,13 +2350,16 @@
       <c r="D13">
         <v>-471731</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2037,13 +2367,16 @@
       <c r="D14">
         <v>-146490</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2051,13 +2384,16 @@
       <c r="D15">
         <v>42350</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2065,13 +2401,16 @@
       <c r="D16">
         <v>-34931</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -2079,13 +2418,16 @@
       <c r="D17">
         <v>-911854</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2093,13 +2435,16 @@
       <c r="D18">
         <v>495490</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2107,13 +2452,16 @@
       <c r="D19">
         <v>2045919</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2121,13 +2469,16 @@
       <c r="D20">
         <v>78591</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2135,13 +2486,16 @@
       <c r="D21">
         <v>2483611</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2149,13 +2503,16 @@
       <c r="D22">
         <v>1002417</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2163,13 +2520,16 @@
       <c r="D23">
         <v>797165</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2177,19 +2537,25 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>2022</v>
       </c>
       <c r="D25">
         <v>6903193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2199,13 +2565,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,13 +2584,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2232,19 +2601,25 @@
       <c r="D2">
         <v>135398</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>154401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2254,13 +2629,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,13 +2648,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2287,13 +2665,16 @@
       <c r="D2">
         <v>49997418</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2301,13 +2682,16 @@
       <c r="D3">
         <v>36957838</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2315,13 +2699,16 @@
       <c r="D4">
         <v>1938174</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2329,13 +2716,16 @@
       <c r="D5">
         <v>88893430</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2343,13 +2733,16 @@
       <c r="D6">
         <v>77003710</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2357,13 +2750,16 @@
       <c r="D7">
         <v>31721573</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2371,19 +2767,25 @@
       <c r="D8">
         <v>3214690</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>111939973</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2393,13 +2795,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,13 +2814,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2426,13 +2831,16 @@
       <c r="D2">
         <v>2776820</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2440,13 +2848,16 @@
       <c r="D3">
         <v>361290</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2454,19 +2865,25 @@
       <c r="D4">
         <v>3287069</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>363551</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
